--- a/Tests/Tests.xlsx
+++ b/Tests/Tests.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9EE104-DA23-41EA-B6CB-94278CFD4C01}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB6BDE4-1427-4992-B582-21452BAA6980}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="418" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -665,7 +665,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -722,7 +722,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1058,7 +1058,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1115,7 +1115,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1456,7 +1456,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1513,7 +1513,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1803,13 +1803,10 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -1843,13 +1840,10 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -1883,13 +1877,10 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -4353,7 +4344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -4569,8 +4560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDADE52-E435-42B3-AC75-0D41620A67DA}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
